--- a/biology/Médecine/Kaliémie/Kaliémie.xlsx
+++ b/biology/Médecine/Kaliémie/Kaliémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kali%C3%A9mie</t>
+          <t>Kaliémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kaliémie est la concentration de potassium (K+) dans le plasma sanguin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kali%C3%A9mie</t>
+          <t>Kaliémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôles du potassium</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le potassium est le principal ion intracellulaire, en particulier dans les cellules musculaires. Il existe un très fort gradient de concentration entre le potassium intracellulaire et extracellulaire, entretenu par des pompes situées dans les membranes cellulaires.
 Il intervient dans les phénomènes suivants :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kali%C3%A9mie</t>
+          <t>Kaliémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La valeur normale de la concentration en ion potassium plasmatique (mesure effectuée sur prélèvement anticoagulé) est de 3,6  à   5 mmol·L-1
 Sur sérum (après activation de la coagulation) le potassium plaquettaire est relargué, les valeurs normales du potassium sont donc plus élevées, dépendantes de la numération plaquettaire.
-Le rôle du potassium est capital et son taux doit rester dans une fourchette très précise : l'hypokaliémie mais surtout l'hyperkaliémie peuvent entraîner la mort (par hyperexcitabilité cellulaire, cardiaque notamment). Cependant 98 % du potassium du corps humain est intracellulaire[1] et n'est donc pas mesuré dans la kaliémie.
+Le rôle du potassium est capital et son taux doit rester dans une fourchette très précise : l'hypokaliémie mais surtout l'hyperkaliémie peuvent entraîner la mort (par hyperexcitabilité cellulaire, cardiaque notamment). Cependant 98 % du potassium du corps humain est intracellulaire et n'est donc pas mesuré dans la kaliémie.
 Certains facteurs influencent le flux potassique :
 Font rentrer les ions K+ dans la cellule (effet hypokaliémiant) :
 la stimulation béta adrénergique
